--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.947775</v>
+        <v>22.65656533333333</v>
       </c>
       <c r="H2">
-        <v>89.84332500000001</v>
+        <v>67.969696</v>
       </c>
       <c r="I2">
-        <v>0.9303126840830549</v>
+        <v>0.9268638682343595</v>
       </c>
       <c r="J2">
-        <v>0.930312684083055</v>
+        <v>0.9268638682343595</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>10.53177933333333</v>
+        <v>7.359524333333333</v>
       </c>
       <c r="N2">
-        <v>31.595338</v>
+        <v>22.078573</v>
       </c>
       <c r="O2">
-        <v>0.7877119251503418</v>
+        <v>0.6890485322504919</v>
       </c>
       <c r="P2">
-        <v>0.7877119251503418</v>
+        <v>0.6890485322504918</v>
       </c>
       <c r="Q2">
-        <v>315.4033578243167</v>
+        <v>166.7415438804231</v>
       </c>
       <c r="R2">
-        <v>2838.630220418851</v>
+        <v>1500.673894923808</v>
       </c>
       <c r="S2">
-        <v>0.7328183953708449</v>
+        <v>0.6386541880028987</v>
       </c>
       <c r="T2">
-        <v>0.732818395370845</v>
+        <v>0.6386541880028986</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.947775</v>
+        <v>22.65656533333333</v>
       </c>
       <c r="H3">
-        <v>89.84332500000001</v>
+        <v>67.969696</v>
       </c>
       <c r="I3">
-        <v>0.9303126840830549</v>
+        <v>0.9268638682343595</v>
       </c>
       <c r="J3">
-        <v>0.930312684083055</v>
+        <v>0.9268638682343595</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.216861</v>
       </c>
       <c r="O3">
-        <v>0.1799255153355986</v>
+        <v>0.2252304747913652</v>
       </c>
       <c r="P3">
-        <v>0.1799255153355986</v>
+        <v>0.2252304747913652</v>
       </c>
       <c r="Q3">
-        <v>72.04297647809167</v>
+        <v>54.50309424936177</v>
       </c>
       <c r="R3">
-        <v>648.386788302825</v>
+        <v>490.5278482442559</v>
       </c>
       <c r="S3">
-        <v>0.1673869891068875</v>
+        <v>0.2087579891093862</v>
       </c>
       <c r="T3">
-        <v>0.1673869891068876</v>
+        <v>0.2087579891093861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.947775</v>
+        <v>22.65656533333333</v>
       </c>
       <c r="H4">
-        <v>89.84332500000001</v>
+        <v>67.969696</v>
       </c>
       <c r="I4">
-        <v>0.9303126840830549</v>
+        <v>0.9268638682343595</v>
       </c>
       <c r="J4">
-        <v>0.930312684083055</v>
+        <v>0.9268638682343595</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4326903333333334</v>
+        <v>0.9155606666666666</v>
       </c>
       <c r="N4">
-        <v>1.298071</v>
+        <v>2.746682</v>
       </c>
       <c r="O4">
-        <v>0.03236255951405962</v>
+        <v>0.08572099295814296</v>
       </c>
       <c r="P4">
-        <v>0.03236255951405962</v>
+        <v>0.08572099295814296</v>
       </c>
       <c r="Q4">
-        <v>12.95811274734167</v>
+        <v>20.74346006096355</v>
       </c>
       <c r="R4">
-        <v>116.623014726075</v>
+        <v>186.691140548672</v>
       </c>
       <c r="S4">
-        <v>0.03010729960532241</v>
+        <v>0.07945169112207467</v>
       </c>
       <c r="T4">
-        <v>0.03010729960532241</v>
+        <v>0.07945169112207467</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>2.945626</v>
       </c>
       <c r="I5">
-        <v>0.03050146719708818</v>
+        <v>0.04016781697437198</v>
       </c>
       <c r="J5">
-        <v>0.03050146719708818</v>
+        <v>0.04016781697437198</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>10.53177933333333</v>
+        <v>7.359524333333333</v>
       </c>
       <c r="N5">
-        <v>31.595338</v>
+        <v>22.078573</v>
       </c>
       <c r="O5">
-        <v>0.7877119251503418</v>
+        <v>0.6890485322504919</v>
       </c>
       <c r="P5">
-        <v>0.7877119251503418</v>
+        <v>0.6890485322504918</v>
       </c>
       <c r="Q5">
-        <v>10.34089434350978</v>
+        <v>7.226135407966444</v>
       </c>
       <c r="R5">
-        <v>93.06804909158799</v>
+        <v>65.03521867169799</v>
       </c>
       <c r="S5">
-        <v>0.02402636944572833</v>
+        <v>0.02767757532989741</v>
       </c>
       <c r="T5">
-        <v>0.02402636944572833</v>
+        <v>0.0276775753298974</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.945626</v>
       </c>
       <c r="I6">
-        <v>0.03050146719708818</v>
+        <v>0.04016781697437198</v>
       </c>
       <c r="J6">
-        <v>0.03050146719708818</v>
+        <v>0.04016781697437198</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.216861</v>
       </c>
       <c r="O6">
-        <v>0.1799255153355986</v>
+        <v>0.2252304747913652</v>
       </c>
       <c r="P6">
-        <v>0.1799255153355986</v>
+        <v>0.2252304747913652</v>
       </c>
       <c r="Q6">
         <v>2.362019266665111</v>
@@ -818,10 +818,10 @@
         <v>21.258173399986</v>
       </c>
       <c r="S6">
-        <v>0.005487992203927945</v>
+        <v>0.009047016488470462</v>
       </c>
       <c r="T6">
-        <v>0.005487992203927946</v>
+        <v>0.00904701648847046</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>2.945626</v>
       </c>
       <c r="I7">
-        <v>0.03050146719708818</v>
+        <v>0.04016781697437198</v>
       </c>
       <c r="J7">
-        <v>0.03050146719708818</v>
+        <v>0.04016781697437198</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4326903333333334</v>
+        <v>0.9155606666666666</v>
       </c>
       <c r="N7">
-        <v>1.298071</v>
+        <v>2.746682</v>
       </c>
       <c r="O7">
-        <v>0.03236255951405962</v>
+        <v>0.08572099295814296</v>
       </c>
       <c r="P7">
-        <v>0.03236255951405962</v>
+        <v>0.08572099295814296</v>
       </c>
       <c r="Q7">
-        <v>0.4248479652717778</v>
+        <v>0.8989664347702221</v>
       </c>
       <c r="R7">
-        <v>3.823631687446</v>
+        <v>8.090697912931999</v>
       </c>
       <c r="S7">
-        <v>0.0009871055474319035</v>
+        <v>0.003443225156004116</v>
       </c>
       <c r="T7">
-        <v>0.0009871055474319035</v>
+        <v>0.003443225156004116</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.261435</v>
+        <v>0.8058883333333333</v>
       </c>
       <c r="H8">
-        <v>3.784305</v>
+        <v>2.417665</v>
       </c>
       <c r="I8">
-        <v>0.03918584871985675</v>
+        <v>0.03296831479126849</v>
       </c>
       <c r="J8">
-        <v>0.03918584871985676</v>
+        <v>0.03296831479126849</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>10.53177933333333</v>
+        <v>7.359524333333333</v>
       </c>
       <c r="N8">
-        <v>31.595338</v>
+        <v>22.078573</v>
       </c>
       <c r="O8">
-        <v>0.7877119251503418</v>
+        <v>0.6890485322504919</v>
       </c>
       <c r="P8">
-        <v>0.7877119251503418</v>
+        <v>0.6890485322504918</v>
       </c>
       <c r="Q8">
-        <v>13.28515506334333</v>
+        <v>5.930954799116111</v>
       </c>
       <c r="R8">
-        <v>119.56639557009</v>
+        <v>53.378593192045</v>
       </c>
       <c r="S8">
-        <v>0.03086716033376842</v>
+        <v>0.02271676891769574</v>
       </c>
       <c r="T8">
-        <v>0.03086716033376843</v>
+        <v>0.02271676891769573</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.261435</v>
+        <v>0.8058883333333333</v>
       </c>
       <c r="H9">
-        <v>3.784305</v>
+        <v>2.417665</v>
       </c>
       <c r="I9">
-        <v>0.03918584871985675</v>
+        <v>0.03296831479126849</v>
       </c>
       <c r="J9">
-        <v>0.03918584871985676</v>
+        <v>0.03296831479126849</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>7.216861</v>
       </c>
       <c r="O9">
-        <v>0.1799255153355986</v>
+        <v>0.2252304747913652</v>
       </c>
       <c r="P9">
-        <v>0.1799255153355986</v>
+        <v>0.2252304747913652</v>
       </c>
       <c r="Q9">
-        <v>3.034533685178333</v>
+        <v>1.938661361062778</v>
       </c>
       <c r="R9">
-        <v>27.310803166605</v>
+        <v>17.447952249565</v>
       </c>
       <c r="S9">
-        <v>0.007050534024783031</v>
+        <v>0.007425469193508592</v>
       </c>
       <c r="T9">
-        <v>0.007050534024783034</v>
+        <v>0.00742546919350859</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.261435</v>
+        <v>0.8058883333333333</v>
       </c>
       <c r="H10">
-        <v>3.784305</v>
+        <v>2.417665</v>
       </c>
       <c r="I10">
-        <v>0.03918584871985675</v>
+        <v>0.03296831479126849</v>
       </c>
       <c r="J10">
-        <v>0.03918584871985676</v>
+        <v>0.03296831479126849</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4326903333333334</v>
+        <v>0.9155606666666666</v>
       </c>
       <c r="N10">
-        <v>1.298071</v>
+        <v>2.746682</v>
       </c>
       <c r="O10">
-        <v>0.03236255951405962</v>
+        <v>0.08572099295814296</v>
       </c>
       <c r="P10">
-        <v>0.03236255951405962</v>
+        <v>0.08572099295814296</v>
       </c>
       <c r="Q10">
-        <v>0.5458107306283334</v>
+        <v>0.7378396597255554</v>
       </c>
       <c r="R10">
-        <v>4.912296575655001</v>
+        <v>6.64055693753</v>
       </c>
       <c r="S10">
-        <v>0.001268154361305301</v>
+        <v>0.002826076680064167</v>
       </c>
       <c r="T10">
-        <v>0.001268154361305301</v>
+        <v>0.002826076680064166</v>
       </c>
     </row>
   </sheetData>
